--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_5_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_5_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-873133.5910922352</v>
+        <v>-875474.7771948834</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6650006.965761233</v>
+        <v>6654055.582836237</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14215886.62834825</v>
+        <v>14215670.78940324</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +659,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>10.29782397666626</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100.5167026757723</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>68.62056182483877</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>12.16591620102629</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>22.35153719005459</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>186.0190921871977</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>103.5280487491366</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,19 +1063,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>15.18239726227538</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>36.72126511067018</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>352.1709949662997</v>
+        <v>63.58795689164773</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>94.63926978364077</v>
+        <v>25.08467608327366</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9338715566937</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.7321536188796</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>42.04518470759558</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.464536558263</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.0354336278048</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9961436311612</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>135.0059677968616</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.65963851412518</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>8.915218264396657</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,16 +1494,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>128.264216864854</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7427643629146</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7875959384519</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0312564930842</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.803454668018</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.51626366671984</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,16 +1576,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>173.626889274478</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>129.7479961969744</v>
+        <v>218.5846533520929</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1625,7 +1625,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292658</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1768,16 +1768,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>80.20970661362122</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -1822,16 +1822,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>12.37405632729977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,10 +1895,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>110.9682788846974</v>
       </c>
       <c r="D19" t="n">
-        <v>57.02146927219732</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2242,22 +2242,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>41.62368933707559</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>98.12640288586326</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2476,16 +2476,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1.487334137518444</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>39.77808571121579</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534541</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>103.1340411809968</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>215.9919723025125</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2810,7 +2810,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292584</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247737</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,10 +2916,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734125409</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T30" t="n">
         <v>190.7165703189231</v>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>68.59371373187025</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292584</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247737</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734097352</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T33" t="n">
         <v>190.7165703189231</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
         <v>120.2716844800353</v>
@@ -3193,19 +3193,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.458826027977</v>
+        <v>99.45882602797738</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X34" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292584</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,10 +3317,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247737</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734097352</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T36" t="n">
         <v>190.7165703189231</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C37" t="n">
         <v>120.2716844800353</v>
@@ -3430,19 +3430,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G37" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124587</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S37" t="n">
         <v>142.7938887128493</v>
       </c>
       <c r="T37" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U37" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V37" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W37" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X37" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292606</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734099341</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
         <v>120.2716844800353</v>
@@ -3667,19 +3667,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404341</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572827</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
-        <v>49.3772837912456</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145486</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T40" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U40" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V40" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W40" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X40" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="41">
@@ -3904,19 +3904,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -3995,7 +3995,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4153,7 +4153,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>893.6556294787897</v>
+        <v>962.9693282917581</v>
       </c>
       <c r="C2" t="n">
-        <v>893.6556294787897</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="D2" t="n">
-        <v>893.6556294787897</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="E2" t="n">
-        <v>893.6556294787897</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F2" t="n">
-        <v>482.6697246891821</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2396.629215049917</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2396.629215049917</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>2396.629215049917</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W2" t="n">
-        <v>2043.860559779803</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X2" t="n">
-        <v>1670.394801518723</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="Y2" t="n">
-        <v>1280.255469542911</v>
+        <v>1349.56916835588</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>398.3338608103785</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="C4" t="n">
-        <v>398.3338608103785</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="D4" t="n">
-        <v>248.2172213980428</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="E4" t="n">
-        <v>235.9284171545819</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="F4" t="n">
-        <v>235.9284171545819</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="G4" t="n">
-        <v>235.9284171545819</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4513,25 @@
         <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406182</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406182</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406182</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="V4" t="n">
-        <v>579.9823256406182</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="W4" t="n">
-        <v>579.9823256406182</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="X4" t="n">
-        <v>579.9823256406182</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="Y4" t="n">
-        <v>579.9823256406182</v>
+        <v>76.52029211334889</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2107.607341885688</v>
+        <v>666.7503635877424</v>
       </c>
       <c r="C5" t="n">
-        <v>2107.607341885688</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V5" t="n">
-        <v>2212.181128500977</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W5" t="n">
-        <v>2212.181128500977</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X5" t="n">
-        <v>2212.181128500977</v>
+        <v>1443.489535627676</v>
       </c>
       <c r="Y5" t="n">
-        <v>2107.607341885688</v>
+        <v>1053.350203651864</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4668,7 +4668,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>509.3883323957195</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064342</v>
+        <v>509.3883323957195</v>
       </c>
       <c r="D7" t="n">
-        <v>578.0123447940985</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="E7" t="n">
-        <v>578.0123447940985</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="F7" t="n">
-        <v>562.6765899837193</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220517</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4756,19 +4756,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>691.0367972259593</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>691.0367972259593</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>691.0367972259593</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>691.0367972259593</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>691.0367972259593</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1571.689018870909</v>
+        <v>1760.851696582593</v>
       </c>
       <c r="C8" t="n">
-        <v>1571.689018870909</v>
+        <v>1760.851696582593</v>
       </c>
       <c r="D8" t="n">
-        <v>1213.423320264159</v>
+        <v>1402.585997975842</v>
       </c>
       <c r="E8" t="n">
-        <v>827.6350676659147</v>
+        <v>1016.797745377598</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935031</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="X8" t="n">
-        <v>1958.288858935031</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="Y8" t="n">
-        <v>1958.288858935031</v>
+        <v>2147.451536646714</v>
       </c>
     </row>
     <row r="9">
@@ -4857,67 +4857,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
         <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598707</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036446</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064347</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064347</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064347</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610026</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610026</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W10" t="n">
-        <v>149.538203824042</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X10" t="n">
-        <v>149.538203824042</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036446</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.827255750246</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.864738809834</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1647.599040203084</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.810787604839</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.8248828152318</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.7401640710967</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>138.0309179914203</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>450.8252547561873</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>1104.019032496583</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1553.155698265663</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2084.576215748576</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N11" t="n">
-        <v>2629.209481166242</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O11" t="n">
-        <v>3485.925075533296</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4197.551032872599</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4654.730730682137</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.481483471981</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4462.395186878239</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.863728664945</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.800841321374</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3525.032186051259</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3151.56642779018</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2761.427095814368</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>960.6607132131649</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>786.2076839320379</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>637.2732742707865</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>478.0358192653309</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>331.5012612922161</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>195.1315968509417</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>104.5663054225325</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>188.6304655901488</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>425.8557720172216</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>791.1570130847059</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M12" t="n">
-        <v>1236.80319943632</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1708.652959194794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2118.083510842051</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2427.354558330745</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
-        <v>2584.174866856816</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2584.174866856816</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2454.615051841812</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
-        <v>2261.945592889373</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2033.877314163664</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
-        <v>1798.725205931921</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1544.48784920372</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1336.636348998187</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1128.876050233233</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1120.882529008155</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C13" t="n">
-        <v>951.9463460802478</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D13" t="n">
-        <v>801.8297066679121</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>653.916613085519</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>507.0266655876086</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>339.3183256956044</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>193.0522098693236</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
-        <v>140.3023286490538</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>343.6628557168179</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
-        <v>659.4207503875591</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
-        <v>1002.732300888672</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N13" t="n">
-        <v>1343.315286479766</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1641.882503112266</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
-        <v>1873.837653793006</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1950.996296790518</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1950.996296790518</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1950.996296790518</v>
+        <v>1780.962769867857</v>
       </c>
       <c r="T13" t="n">
-        <v>1950.996296790518</v>
+        <v>1559.196154437383</v>
       </c>
       <c r="U13" t="n">
-        <v>1950.996296790518</v>
+        <v>1270.093287563027</v>
       </c>
       <c r="V13" t="n">
-        <v>1950.996296790518</v>
+        <v>1015.40879935714</v>
       </c>
       <c r="W13" t="n">
-        <v>1661.579126753558</v>
+        <v>725.9916293201796</v>
       </c>
       <c r="X13" t="n">
-        <v>1433.58957585554</v>
+        <v>498.0020784221623</v>
       </c>
       <c r="Y13" t="n">
-        <v>1302.530993838394</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="14">
@@ -5255,43 +5255,43 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089263</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L14" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483406</v>
+        <v>2536.153662641309</v>
       </c>
       <c r="N14" t="n">
-        <v>2637.914081542188</v>
+        <v>3082.932479700092</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232732</v>
+        <v>3585.904950579429</v>
       </c>
       <c r="P14" t="n">
         <v>4195.497197679678</v>
@@ -5346,7 +5346,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468565</v>
@@ -5355,28 +5355,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142068</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1023.336921276364</v>
+        <v>491.734309828768</v>
       </c>
       <c r="C16" t="n">
-        <v>854.4007383484569</v>
+        <v>322.7981269008611</v>
       </c>
       <c r="D16" t="n">
-        <v>704.2840989361212</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="E16" t="n">
-        <v>556.371005353728</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F16" t="n">
-        <v>409.4810578558177</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G16" t="n">
         <v>241.7782212305366</v>
@@ -5437,7 +5437,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5449,37 +5449,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T16" t="n">
-        <v>1734.57685067423</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U16" t="n">
         <v>1445.473983799873</v>
       </c>
       <c r="V16" t="n">
-        <v>1445.473983799873</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W16" t="n">
-        <v>1445.473983799873</v>
+        <v>901.3723255570251</v>
       </c>
       <c r="X16" t="n">
-        <v>1217.484432901856</v>
+        <v>673.3827746590077</v>
       </c>
       <c r="Y16" t="n">
-        <v>1204.985386106604</v>
+        <v>673.3827746590077</v>
       </c>
     </row>
     <row r="17">
@@ -5492,16 +5492,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
         <v>435.1415336001585</v>
@@ -5513,19 +5513,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L17" t="n">
-        <v>1898.858917622688</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2432.390822294613</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N17" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O17" t="n">
         <v>3482.142110232732</v>
@@ -5546,13 +5546,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5583,7 +5583,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
@@ -5592,28 +5592,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>300.048425655595</v>
+        <v>673.3827746590077</v>
       </c>
       <c r="C19" t="n">
-        <v>300.048425655595</v>
+        <v>561.2936040684043</v>
       </c>
       <c r="D19" t="n">
-        <v>242.4509819463048</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="E19" t="n">
-        <v>242.4509819463048</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G19" t="n">
         <v>95.56103444839442</v>
@@ -5674,7 +5674,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5686,37 +5686,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501056</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U19" t="n">
-        <v>1253.788099626699</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V19" t="n">
-        <v>999.1036114208126</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W19" t="n">
-        <v>709.6864413838521</v>
+        <v>901.3723255570251</v>
       </c>
       <c r="X19" t="n">
-        <v>481.6968904858347</v>
+        <v>673.3827746590077</v>
       </c>
       <c r="Y19" t="n">
-        <v>481.6968904858347</v>
+        <v>673.3827746590077</v>
       </c>
     </row>
     <row r="20">
@@ -5732,46 +5732,46 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1586.925993846824</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2120.457898518748</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N20" t="n">
-        <v>2667.236715577531</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O20" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5853,16 +5853,16 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>528.0379765536123</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="C22" t="n">
-        <v>528.0379765536123</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="D22" t="n">
-        <v>528.0379765536123</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E22" t="n">
-        <v>528.0379765536123</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>381.148029055702</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5935,25 +5935,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501056</v>
+        <v>1857.225887432115</v>
       </c>
       <c r="U22" t="n">
-        <v>1253.788099626699</v>
+        <v>1568.123020557758</v>
       </c>
       <c r="V22" t="n">
-        <v>999.1036114208126</v>
+        <v>1313.438532351871</v>
       </c>
       <c r="W22" t="n">
-        <v>709.6864413838521</v>
+        <v>1024.02136231491</v>
       </c>
       <c r="X22" t="n">
-        <v>709.6864413838521</v>
+        <v>796.0318114168931</v>
       </c>
       <c r="Y22" t="n">
-        <v>709.6864413838521</v>
+        <v>575.239232273363</v>
       </c>
     </row>
     <row r="23">
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
@@ -6072,7 +6072,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6108,10 +6108,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>452.5901955154781</v>
+        <v>391.866433243363</v>
       </c>
       <c r="C25" t="n">
-        <v>283.6540125875712</v>
+        <v>391.866433243363</v>
       </c>
       <c r="D25" t="n">
-        <v>283.6540125875712</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E25" t="n">
-        <v>135.7409190051781</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F25" t="n">
         <v>95.56103444839442</v>
@@ -6169,28 +6169,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1734.57685067423</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1445.473983799873</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V25" t="n">
-        <v>1190.789495593986</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W25" t="n">
-        <v>901.3723255570255</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X25" t="n">
-        <v>673.3827746590082</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y25" t="n">
-        <v>452.5901955154781</v>
+        <v>391.866433243363</v>
       </c>
     </row>
     <row r="26">
@@ -6200,52 +6200,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>818.2062848686776</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1682.725100522032</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483406</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542188</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6257,19 +6257,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6279,64 +6279,64 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C27" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>368.6730165490254</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C28" t="n">
-        <v>199.7368336211185</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>199.7368336211185</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>199.7368336211185</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>199.7368336211185</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
         <v>95.56103444839442</v>
@@ -6412,22 +6412,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501056</v>
+        <v>1546.483872535053</v>
       </c>
       <c r="U28" t="n">
-        <v>1253.788099626699</v>
+        <v>1257.381005660696</v>
       </c>
       <c r="V28" t="n">
-        <v>999.1036114208126</v>
+        <v>1002.69651745481</v>
       </c>
       <c r="W28" t="n">
-        <v>999.1036114208126</v>
+        <v>713.2793474178488</v>
       </c>
       <c r="X28" t="n">
-        <v>771.1140605227953</v>
+        <v>485.2897965198315</v>
       </c>
       <c r="Y28" t="n">
-        <v>550.3214813792652</v>
+        <v>264.4972173763014</v>
       </c>
     </row>
     <row r="29">
@@ -6440,49 +6440,49 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074201</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>939.1634975427199</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1682.72510052203</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M29" t="n">
-        <v>2216.257005193955</v>
+        <v>2593.249184644075</v>
       </c>
       <c r="N29" t="n">
-        <v>3196.009277420602</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O29" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6494,19 +6494,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6516,58 +6516,58 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390119</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193592</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.961311426851</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902954</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549555</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142067</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>481.6968904858361</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C31" t="n">
-        <v>312.7607075579292</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>312.7607075579292</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>164.8476139755361</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>164.8476139755361</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>164.8476139755361</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>164.8476139755361</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>140.6836668953301</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442066</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927029</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.125669518531</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
-        <v>1878.73316995219</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104705</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104705</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.657581931531</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501057</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1253.788099626701</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V31" t="n">
-        <v>999.103611420814</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W31" t="n">
-        <v>709.6864413838534</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X31" t="n">
-        <v>481.6968904858361</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y31" t="n">
-        <v>481.6968904858361</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="32">
@@ -6677,49 +6677,49 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074201</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>818.2062848686741</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1682.725100522029</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2216.257005193954</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N32" t="n">
-        <v>3196.009277420601</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750057</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107235</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862917</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R32" t="n">
         <v>4778.05172241972</v>
@@ -6728,22 +6728,22 @@
         <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6753,46 +6753,46 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390119</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193592</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320224</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.476988454339</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
         <v>2436.460902902952</v>
@@ -6804,7 +6804,7 @@
         <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>788.5151678215059</v>
+        <v>788.5151678215061</v>
       </c>
       <c r="C34" t="n">
-        <v>667.0286178416723</v>
+        <v>667.0286178416725</v>
       </c>
       <c r="D34" t="n">
-        <v>564.3616113774098</v>
+        <v>564.3616113774101</v>
       </c>
       <c r="E34" t="n">
-        <v>463.8981507430896</v>
+        <v>463.8981507430895</v>
       </c>
       <c r="F34" t="n">
         <v>364.4578361932524</v>
@@ -6850,43 +6850,43 @@
         <v>244.2046325160447</v>
       </c>
       <c r="H34" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
-        <v>187.1890521477367</v>
+        <v>187.1890521477366</v>
       </c>
       <c r="K34" t="n">
-        <v>437.6816203490198</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L34" t="n">
-        <v>800.7468040499227</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M34" t="n">
         <v>1191.409234901878</v>
       </c>
       <c r="N34" t="n">
-        <v>1579.32299686015</v>
+        <v>1579.322996860149</v>
       </c>
       <c r="O34" t="n">
-        <v>1925.15798103297</v>
+        <v>1925.157981032969</v>
       </c>
       <c r="P34" t="n">
-        <v>2204.270866719036</v>
+        <v>2204.270866719035</v>
       </c>
       <c r="Q34" t="n">
         <v>2328.386548123957</v>
       </c>
       <c r="R34" t="n">
-        <v>2286.005723829559</v>
+        <v>2286.005723829558</v>
       </c>
       <c r="S34" t="n">
         <v>2141.769472604458</v>
       </c>
       <c r="T34" t="n">
-        <v>1967.452490122058</v>
+        <v>1967.452490122057</v>
       </c>
       <c r="U34" t="n">
         <v>1725.799256195774</v>
@@ -6901,7 +6901,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y34" t="n">
-        <v>922.7139997036724</v>
+        <v>922.7139997036725</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
         <v>2005.253839749764</v>
@@ -6920,43 +6920,43 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074201</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K35" t="n">
-        <v>818.206284868675</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L35" t="n">
-        <v>1682.72510052203</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2216.257005193955</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N35" t="n">
-        <v>3196.009277420602</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -6971,16 +6971,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -6990,40 +6990,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390119</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193592</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320224</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M36" t="n">
-        <v>1241.476988454339</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
         <v>1715.000032008794</v>
@@ -7038,7 +7038,7 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S36" t="n">
         <v>2464.520220635548</v>
@@ -7047,7 +7047,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7056,10 +7056,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7069,58 +7069,58 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>788.515167821506</v>
+        <v>788.5151678215057</v>
       </c>
       <c r="C37" t="n">
-        <v>667.0286178416724</v>
+        <v>667.028617841672</v>
       </c>
       <c r="D37" t="n">
-        <v>564.3616113774099</v>
+        <v>564.3616113774096</v>
       </c>
       <c r="E37" t="n">
-        <v>463.89815074309</v>
+        <v>463.8981507430898</v>
       </c>
       <c r="F37" t="n">
-        <v>364.4578361932525</v>
+        <v>364.4578361932528</v>
       </c>
       <c r="G37" t="n">
-        <v>244.2046325160447</v>
+        <v>244.204632516045</v>
       </c>
       <c r="H37" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819761</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>187.1890521477367</v>
+        <v>187.1890521477366</v>
       </c>
       <c r="K37" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L37" t="n">
-        <v>800.7468040499227</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M37" t="n">
         <v>1191.409234901878</v>
       </c>
       <c r="N37" t="n">
-        <v>1579.32299686015</v>
+        <v>1579.322996860149</v>
       </c>
       <c r="O37" t="n">
-        <v>1925.15798103297</v>
+        <v>1925.157981032969</v>
       </c>
       <c r="P37" t="n">
-        <v>2204.270866719036</v>
+        <v>2204.270866719035</v>
       </c>
       <c r="Q37" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R37" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S37" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T37" t="n">
         <v>1967.452490122057</v>
@@ -7129,7 +7129,7 @@
         <v>1725.799256195774</v>
       </c>
       <c r="V37" t="n">
-        <v>1518.564400937961</v>
+        <v>1518.56440093796</v>
       </c>
       <c r="W37" t="n">
         <v>1276.596863849073</v>
@@ -7138,7 +7138,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y37" t="n">
-        <v>922.7139997036725</v>
+        <v>922.713999703672</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
         <v>2005.253839749764</v>
@@ -7157,7 +7157,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
         <v>850.213983755162</v>
@@ -7166,25 +7166,25 @@
         <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277727</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.60335981148</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483404</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542186</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O38" t="n">
         <v>3482.142110232732</v>
@@ -7208,16 +7208,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7227,52 +7227,52 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G39" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390116</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320235</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M39" t="n">
-        <v>1241.476988454339</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008793</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.961311426848</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.46090290295</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R39" t="n">
         <v>2593.958107142068</v>
@@ -7281,16 +7281,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V39" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X39" t="n">
         <v>1346.568408282342</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215041</v>
+        <v>788.5151678215051</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416704</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774079</v>
+        <v>564.3616113774093</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430881</v>
+        <v>463.8981507430895</v>
       </c>
       <c r="F40" t="n">
-        <v>364.457836193251</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G40" t="n">
-        <v>244.2046325160448</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H40" t="n">
         <v>145.4370786819758</v>
@@ -7330,52 +7330,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>187.1890521477365</v>
+        <v>187.1890521477367</v>
       </c>
       <c r="K40" t="n">
-        <v>437.6816203490193</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L40" t="n">
-        <v>800.7468040499219</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M40" t="n">
-        <v>1191.409234901877</v>
+        <v>1191.409234901878</v>
       </c>
       <c r="N40" t="n">
         <v>1579.322996860149</v>
       </c>
       <c r="O40" t="n">
-        <v>1925.157981032968</v>
+        <v>1925.157981032969</v>
       </c>
       <c r="P40" t="n">
-        <v>2204.270866719034</v>
+        <v>2204.270866719035</v>
       </c>
       <c r="Q40" t="n">
-        <v>2328.386548123955</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R40" t="n">
-        <v>2286.005723829557</v>
+        <v>2286.005723829558</v>
       </c>
       <c r="S40" t="n">
-        <v>2141.769472604456</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T40" t="n">
-        <v>1967.452490122056</v>
+        <v>1967.452490122057</v>
       </c>
       <c r="U40" t="n">
-        <v>1725.799256195773</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V40" t="n">
-        <v>1518.564400937959</v>
+        <v>1518.56440093796</v>
       </c>
       <c r="W40" t="n">
-        <v>1276.596863849071</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X40" t="n">
-        <v>1096.056945899127</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036705</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
     <row r="41">
@@ -7415,13 +7415,13 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O41" t="n">
         <v>3482.142110232732</v>
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
         <v>205.0702204089889</v>
@@ -7488,10 +7488,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
         <v>794.2006632320242</v>
@@ -7506,22 +7506,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7530,10 +7530,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215057</v>
+        <v>788.5151678215054</v>
       </c>
       <c r="C43" t="n">
-        <v>667.028617841672</v>
+        <v>667.0286178416718</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774096</v>
+        <v>564.3616113774093</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430898</v>
+        <v>463.8981507430895</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932527</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G43" t="n">
-        <v>244.2046325160448</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H43" t="n">
         <v>145.4370786819758</v>
@@ -7570,7 +7570,7 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K43" t="n">
-        <v>437.6816203490195</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L43" t="n">
         <v>800.7468040499223</v>
@@ -7588,7 +7588,7 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q43" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R43" t="n">
         <v>2286.005723829558</v>
@@ -7612,7 +7612,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.713999703672</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
     <row r="44">
@@ -7637,37 +7637,37 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.845814427773</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
@@ -7725,34 +7725,34 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193591</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320246</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215054</v>
+        <v>788.5151678215057</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416718</v>
+        <v>667.028617841672</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774094</v>
+        <v>564.3616113774096</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430896</v>
+        <v>463.8981507430898</v>
       </c>
       <c r="F46" t="n">
-        <v>364.4578361932525</v>
+        <v>364.4578361932528</v>
       </c>
       <c r="G46" t="n">
         <v>244.2046325160447</v>
@@ -7804,10 +7804,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>187.1890521477363</v>
+        <v>187.1890521477366</v>
       </c>
       <c r="K46" t="n">
-        <v>437.6816203490194</v>
+        <v>437.6816203490195</v>
       </c>
       <c r="L46" t="n">
         <v>800.7468040499223</v>
@@ -7825,13 +7825,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q46" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R46" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S46" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T46" t="n">
         <v>1967.452490122057</v>
@@ -7849,7 +7849,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.7139997036718</v>
+        <v>922.713999703672</v>
       </c>
     </row>
   </sheetData>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>327.4218609627882</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>359.3627344057996</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.546395060290962</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8933,16 +8933,16 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>216.9877583263345</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9167,7 +9167,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,13 +9398,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>198.7154374299952</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>201.9664098701124</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,22 +10109,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>295.4822118493949</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>89.52456338961929</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>-2.805783383408311e-12</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10349,19 +10349,19 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>201.9664098701083</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>201.9664098701092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10832,10 +10832,10 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>344.7025836476837</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476865</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -11063,7 +11063,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11294,31 +11294,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476831</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22547,16 +22547,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>278.9325901498268</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22565,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>147.827758532819</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0.9357052032495687</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>89.17712508496182</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.8639731922165</v>
+        <v>16.14213605696392</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5722280944081</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2121353820159</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>88.83665715512035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>68.40576640459113</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>206.210597024795</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>56.27854221393045</v>
       </c>
       <c r="D19" t="n">
-        <v>91.59400374601503</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>124.4021189219526</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,10 +24175,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>121.4225463903059</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,16 +24364,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>147.1281388806939</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>105.6429623117155</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24613,7 +24613,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>62.89176707803139</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>3.556976973656674</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24856,7 +24856,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>27.75870667796781</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004727</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25081,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>-3.552713678800501e-13</v>
+        <v>-7.673861546209082e-13</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>-3.197442310920451e-13</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25561,7 +25561,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.605826582817826e-12</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1196447.385667021</v>
+        <v>1196124.165160857</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1208480.149398046</v>
+        <v>1208600.93905046</v>
       </c>
     </row>
     <row r="6">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1248918.233185935</v>
+        <v>1248918.233185936</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1248918.233185936</v>
+        <v>1248918.233185935</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1248918.233185935</v>
+        <v>1248918.233185936</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>192026.3063317519</v>
+        <v>191972.4362473912</v>
       </c>
       <c r="C2" t="n">
         <v>205260.4424660708</v>
@@ -26320,19 +26320,19 @@
         <v>205260.4424660708</v>
       </c>
       <c r="E2" t="n">
-        <v>198487.023359131</v>
+        <v>198540.8934434915</v>
       </c>
       <c r="F2" t="n">
         <v>198540.8934434915</v>
       </c>
       <c r="G2" t="n">
-        <v>198540.8934434915</v>
+        <v>198540.8934434916</v>
       </c>
       <c r="H2" t="n">
         <v>198540.8934434915</v>
       </c>
       <c r="I2" t="n">
-        <v>198540.8934434916</v>
+        <v>198540.8934434915</v>
       </c>
       <c r="J2" t="n">
         <v>198540.8934434915</v>
@@ -26344,16 +26344,16 @@
         <v>205260.4424660705</v>
       </c>
       <c r="M2" t="n">
-        <v>205260.4424660709</v>
+        <v>205260.4424660705</v>
       </c>
       <c r="N2" t="n">
-        <v>205260.4424660705</v>
+        <v>205260.4424660707</v>
       </c>
       <c r="O2" t="n">
+        <v>205260.4424660708</v>
+      </c>
+      <c r="P2" t="n">
         <v>205260.4424660707</v>
-      </c>
-      <c r="P2" t="n">
-        <v>205260.4424660708</v>
       </c>
     </row>
     <row r="3">
@@ -26369,13 +26369,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>724950.0977870515</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
-        <v>2388.166286075964</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26390,22 +26390,22 @@
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>4.965909283782821e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487403</v>
+        <v>37580.10929487405</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
-        <v>4.620387699105777e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153134.2501409024</v>
+        <v>153011.2610588576</v>
       </c>
       <c r="C4" t="n">
         <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>18350.090957734</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="F4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918992</v>
       </c>
       <c r="G4" t="n">
-        <v>18148.49231918991</v>
+        <v>18148.49231918995</v>
       </c>
       <c r="H4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918992</v>
       </c>
       <c r="I4" t="n">
         <v>18148.49231918993</v>
       </c>
       <c r="J4" t="n">
-        <v>18148.49231918991</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="K4" t="n">
-        <v>18148.49231918989</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="L4" t="n">
-        <v>33605.65329740894</v>
+        <v>33605.65329740899</v>
       </c>
       <c r="M4" t="n">
-        <v>33605.65329740894</v>
+        <v>33605.653297409</v>
       </c>
       <c r="N4" t="n">
-        <v>33605.65329740901</v>
+        <v>33605.65329740896</v>
       </c>
       <c r="O4" t="n">
         <v>33605.65329740894</v>
       </c>
       <c r="P4" t="n">
-        <v>33605.65329740898</v>
+        <v>33605.65329740899</v>
       </c>
     </row>
     <row r="5">
@@ -26473,16 +26473,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96317.6540569176</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
         <v>96383.51825371366</v>
@@ -26491,10 +26491,10 @@
         <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
         <v>100332.6710141021</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-633934.9010871043</v>
+        <v>-633998.662151607</v>
       </c>
       <c r="C6" t="n">
-        <v>-60947.32245446663</v>
+        <v>-60947.32245446669</v>
       </c>
       <c r="D6" t="n">
-        <v>-60947.32245446683</v>
+        <v>-60947.32245446666</v>
       </c>
       <c r="E6" t="n">
-        <v>-641130.8194425722</v>
+        <v>-643435.7266130445</v>
       </c>
       <c r="F6" t="n">
-        <v>81620.71658451196</v>
+        <v>83941.68738036232</v>
       </c>
       <c r="G6" t="n">
-        <v>84008.88287058788</v>
+        <v>83941.6873803622</v>
       </c>
       <c r="H6" t="n">
-        <v>84008.88287058785</v>
+        <v>83941.68738036219</v>
       </c>
       <c r="I6" t="n">
-        <v>84008.882870588</v>
+        <v>83941.6873803621</v>
       </c>
       <c r="J6" t="n">
-        <v>-92414.33632200494</v>
+        <v>-92481.53181223078</v>
       </c>
       <c r="K6" t="n">
-        <v>84008.88287058752</v>
+        <v>83941.68738036219</v>
       </c>
       <c r="L6" t="n">
-        <v>33742.00885968545</v>
+        <v>33742.00885968539</v>
       </c>
       <c r="M6" t="n">
-        <v>-58320.196684385</v>
+        <v>-58320.19668438525</v>
       </c>
       <c r="N6" t="n">
-        <v>71322.11815456033</v>
+        <v>71322.11815455946</v>
       </c>
       <c r="O6" t="n">
-        <v>71322.11815455917</v>
+        <v>71322.11815455975</v>
       </c>
       <c r="P6" t="n">
-        <v>71322.11815455952</v>
+        <v>71322.11815455963</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O2" t="n">
+        <v>46.97513661859254</v>
+      </c>
+      <c r="P2" t="n">
         <v>46.97513661859256</v>
-      </c>
-      <c r="P2" t="n">
-        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="3">
@@ -26741,10 +26741,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>1086.755407162287</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26762,13 +26762,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="K3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="M3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="N3" t="n">
         <v>1089.776700593298</v>
@@ -26777,7 +26777,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26963,43 +26963,43 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>712.0330363762116</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="E3" t="n">
-        <v>709.0117429451998</v>
-      </c>
-      <c r="F3" t="n">
-        <v>3.0212934310116</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>6.821210263296962e-13</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-1.977751999677055e-13</v>
-      </c>
       <c r="O3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,19 +27379,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>76.04247764451452</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>313.2674673450227</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>134.2680464455429</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>112.6140846022836</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,13 +27585,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>179.2537995838099</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>282.7098899069171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27783,19 +27783,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>130.2386507606559</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27828,7 +27828,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>249.5606091313076</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>54.70505077541173</v>
+        <v>343.2880888500637</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27913,7 +27913,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,19 +28065,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>123.945383568454</v>
+        <v>193.4999772688211</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28314,7 +28314,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
     </row>
     <row r="14">
@@ -28345,7 +28345,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-6.039613253960852e-13</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28819,7 +28819,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>-4.050093593832571e-13</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>-6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="38">
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>-4.831690603168681e-13</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
   </sheetData>
@@ -31516,46 +31516,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31692,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.36886595844135</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.74264849688749</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.4307048628103</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>370.8020371402619</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>555.7361331610844</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>689.439814736734</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>767.1346347251653</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>779.5476751295869</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>736.1047642553357</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>628.2483859063148</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>471.7883737696337</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>274.4357762619417</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.55553302798236</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>19.12471073307702</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.349509276675308</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.337549366349069</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.57580572237128</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.48141458701842</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>220.8471530724794</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>377.4629606178671</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>507.5455323732925</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>592.2816969034462</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>607.9576310312872</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>556.1624582295525</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>446.369404877657</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.3861261325584</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.133108903673</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.41895423898379</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.421964331906992</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1537861425229652</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.959722865374615</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.42371783942159</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>58.93421126053845</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
-        <v>138.5524065819853</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>227.6841656317052</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>291.3573430939678</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>307.1954669786771</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>299.8910453895538</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>276.9979191894957</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.0195727358534</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.1000664815053</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.11626629220767</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.15262484475578</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.373361333873353</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1068939744749791</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681601</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974801</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
-        <v>371.8329054953991</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003814</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623197</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574999</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095028</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099063</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746417</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781693</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563571</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806958</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
-        <v>19.17787942451122</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U29" t="n">
-        <v>0.350480948934528</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.344047997502568</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H30" t="n">
-        <v>22.63856881798533</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752262</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970253</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.610358400293</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987489</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238319</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898505</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,46 +33330,46 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430539</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K31" t="n">
-        <v>228.3171513702026</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098822</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883117</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086003</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
-        <v>237.6785118802171</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q31" t="n">
-        <v>164.5562817895882</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712221</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553038</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112301</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
         <v>0.1071911508780295</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681601</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974801</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
-        <v>371.8329054953991</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003814</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623197</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574999</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095028</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099063</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746417</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781693</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563571</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806958</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
-        <v>19.17787942451122</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U32" t="n">
-        <v>0.350480948934528</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.344047997502568</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H33" t="n">
-        <v>22.63856881798533</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752262</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138774</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970253</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.610358400293</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987489</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238319</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898505</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,46 +33567,46 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430539</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K34" t="n">
-        <v>228.3171513702026</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098822</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883117</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086003</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
-        <v>237.6785118802171</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q34" t="n">
-        <v>164.5562817895882</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712221</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553038</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112301</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
         <v>0.1071911508780295</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681601</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974801</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
-        <v>371.8329054953991</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003814</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623197</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574999</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095028</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099063</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746417</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781693</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563571</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806958</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
-        <v>19.17787942451122</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U35" t="n">
-        <v>0.350480948934528</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.344047997502568</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H36" t="n">
-        <v>22.63856881798533</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752262</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138774</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970253</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.610358400293</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987489</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R36" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238319</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898505</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430539</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K37" t="n">
-        <v>228.3171513702026</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098822</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883117</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086003</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
-        <v>237.6785118802171</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q37" t="n">
-        <v>164.5562817895882</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712221</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553038</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112301</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681595</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974798</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
-        <v>371.8329054953986</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003807</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.356529362319</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574989</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095019</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099054</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.994981974641</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781687</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563567</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806945</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
-        <v>19.17787942451119</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345275</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H39" t="n">
-        <v>22.6385688179853</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752252</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138793</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233472</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.647816683792</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970247</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002924</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987508</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
-        <v>145.536594090554</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238314</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898492</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1542136840462214</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430536</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
-        <v>17.47215759311878</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742015</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098818</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883113</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023085999</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q40" t="n">
-        <v>164.5562817895879</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.3612387071221</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553034</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.39664015211229</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34220,7 +34220,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
         <v>557.708647897025</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34366,40 +34366,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002919</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34518,43 +34518,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>365.2844632307148</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,10 +35331,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>358.8527477856494</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>659.7916946872685</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>453.6733997667467</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>536.7884014978926</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>550.1346115329959</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>865.3692872394486</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P11" t="n">
-        <v>718.8140983225278</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>461.7976745550889</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>124.566658320792</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.00952640581275</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>239.6215216435081</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>368.9911525934183</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>450.1476629814279</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>476.6159189479539</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>413.5662137851081</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>312.3949974633268</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.4043520465369</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19322646531251</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>205.4146738058224</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>318.947368354284</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>346.7793439405177</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>344.0232177687824</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>301.5830471035354</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.2981320007468</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>77.9380232298109</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,25 +35647,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>852.7555845359029</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>615.7497445457061</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R14" t="n">
         <v>125.3296184152072</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35817,13 +35817,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,25 +35884,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L17" t="n">
-        <v>800.2926980400159</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R17" t="n">
         <v>125.3296184152072</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,13 +36118,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>654.3055518223274</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
         <v>538.9211158302268</v>
@@ -36133,7 +36133,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P20" t="n">
         <v>720.5606943908545</v>
@@ -36142,7 +36142,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>539.1576964255129</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687128</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265656</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>751.0723262417274</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302272</v>
+        <v>628.4456792198461</v>
       </c>
       <c r="N29" t="n">
-        <v>989.648759824896</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509649</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193722</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037198</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222495</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597725</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525809</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306631</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
-        <v>319.7573721701983</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M31" t="n">
-        <v>347.633379393484</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N31" t="n">
-        <v>344.8569461675403</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
-        <v>234.9570711451106</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789377</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687128</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>539.1576964255091</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427829</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302272</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>989.648759824896</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509649</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193722</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037198</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222495</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597725</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340032</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525809</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165884</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120765</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861328</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O34" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.9322077637031</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687128</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>539.15769642551</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427829</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302272</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>989.648759824896</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509649</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193722</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037198</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222495</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597725</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340032</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525809</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165884</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K37" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M37" t="n">
-        <v>394.6085160120765</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861328</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O37" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P37" t="n">
-        <v>281.9322077637031</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407861</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265649</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923317</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302262</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.301835412911</v>
+        <v>897.0044190605952</v>
       </c>
       <c r="O38" t="n">
-        <v>852.7555845359052</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>720.560694390854</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636239</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152071</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597696</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340051</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013289</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004588</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525802</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859622</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127293</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165867</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K40" t="n">
-        <v>253.022796162912</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887905</v>
+        <v>366.7325087887908</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120762</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861324</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O40" t="n">
-        <v>349.3282668412321</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.9322077637028</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3693751564861</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
@@ -37792,7 +37792,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
         <v>720.5606943908545</v>
@@ -37868,7 +37868,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
         <v>415.1124034525806</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -37947,7 +37947,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407864</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265653</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923323</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302269</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>852.7555845359025</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908547</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636243</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152073</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859617</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
         <v>394.6085160120764</v>
@@ -38187,7 +38187,7 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O46" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
         <v>281.932207763703</v>
